--- a/Data/CustomerData.xlsx
+++ b/Data/CustomerData.xlsx
@@ -34,7 +34,7 @@
     <x:t>Remarks</x:t>
   </x:si>
   <x:si>
-    <x:t>CS2025_00039</x:t>
+    <x:t>CS2025_00031</x:t>
   </x:si>
   <x:si>
     <x:t>Alice</x:t>
@@ -49,7 +49,7 @@
     <x:t xml:space="preserve"> Unable to log in to my account after recent update.</x:t>
   </x:si>
   <x:si>
-    <x:t>CS2025_00040</x:t>
+    <x:t>CS2025_00032</x:t>
   </x:si>
   <x:si>
     <x:t>Amanda</x:t>
@@ -59,84 +59,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> I am getting frequent error messages on the desktop application.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CS2025_00041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benjamin</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> benjamin.lewis@example.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Billing</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> I was charged for a subscription I canceled last month.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CS2025_00042</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bob</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> bob.smith@example.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Incorrect charge appeared on my credit card statement.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CS2025_00043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Catherine</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> catherine.martin@example.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> General</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> What security features are included in your software?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CS2025_00044</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clara</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> clara.martinez@example.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Do you offer discounts for bulk purchases?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CS2025_00045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Daniel</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> daniel.turner@example.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> The system doesn't recognize my external hard drive.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CS2025_00046</x:t>
-  </x:si>
-  <x:si>
-    <x:t>David</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> david.lee@example.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Website shows a 404 error when trying to access the support page.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -487,7 +409,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F9"/>
+  <x:dimension ref="A1:F3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -545,108 +467,6 @@
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>40</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/CustomerData.xlsx
+++ b/Data/CustomerData.xlsx
@@ -34,7 +34,7 @@
     <x:t>Remarks</x:t>
   </x:si>
   <x:si>
-    <x:t>CS2025_00031</x:t>
+    <x:t>CS2025_00001</x:t>
   </x:si>
   <x:si>
     <x:t>Alice</x:t>
@@ -49,7 +49,7 @@
     <x:t xml:space="preserve"> Unable to log in to my account after recent update.</x:t>
   </x:si>
   <x:si>
-    <x:t>CS2025_00032</x:t>
+    <x:t>CS2025_00002</x:t>
   </x:si>
   <x:si>
     <x:t>Amanda</x:t>
@@ -59,6 +59,348 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> I am getting frequent error messages on the desktop application.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benjamin</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> benjamin.lewis@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Billing</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> I was charged for a subscription I canceled last month.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bob</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> bob.smith@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Incorrect charge appeared on my credit card statement.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Catherine</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> catherine.martin@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> General</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> What security features are included in your software?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clara</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> clara.martinez@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Do you offer discounts for bulk purchases?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Daniel</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> daniel.turner@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> The system doesn't recognize my external hard drive.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> david.lee@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Website shows a 404 error when trying to access the support page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emma</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> emma.brown@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> I need a copy of my last three invoices for reimbursement purposes.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frank</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> frank.harris@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> What are your customer service operating hours?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grace</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> grace.wilson@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> My mobile app keeps crashing whenever I try to open the settings page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harry</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> harry.adams@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> I accidentally made a duplicate payment. Can I get a refund?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isabella</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> isabella.white@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Can I change my subscription plan mid-cycle without penalties?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jack</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> jack.davis@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> I am experiencing connectivity issues with your cloud service.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karen</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> karen.mitchell@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> My subscription renewal failed, and my account is deactivated.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liam</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> liam.robinson@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> The software update failed to install on my device.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mia</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> mia.scott@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Do you have a physical store near my location?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Noah</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> noah.walker@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> I need help configuring my email on a new device.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olivia</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> olivia.young@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Can I split my annual payment into monthly installments?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Paul</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> paul.baker@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> I am unable to reset my password due to an error.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quinn</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> quinn.moore@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Can you explain the differences between your plans?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rachel</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> rachel.thomas@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Why was I charged twice for the same transaction?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sophia</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> sophia.hernandez@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> My printer isn't connecting to the Wi-Fi network.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tom</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> tom.wilson@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Is there a user manual for your latest product?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Uma</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> uma.carter@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> The application freezes when I try to upload large files.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Victor</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> victor.evans@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> I need assistance updating my payment method for my account.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wendy</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> wendy.green@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Do you provide training for your enterprise software?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xavier</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> xavier.hill@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> I can't access my account because of a two-factor authentication issue.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yolanda</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> yolanda.hughes@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> How can I get a detailed breakdown of my charges for the last six months?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CS2025_00030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zachary</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> zachary.perez@example.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Does your service offer multi - language support?</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -409,7 +751,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F3"/>
+  <x:dimension ref="A1:F31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -469,6 +811,482 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
